--- a/Design/DataTable/client_tower_status_info.xlsx
+++ b/Design/DataTable/client_tower_status_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\DateTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SProjectDesign\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE5E768-34D7-4FC6-8118-07ABDEE8AB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD872A46-B7F6-4E90-A6C4-D659CCB70BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
   <sheets>
     <sheet name="!Norma" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="38">
   <si>
     <t>AttackSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,6 +164,18 @@
   </si>
   <si>
     <t>범위 공격 타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UsePoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UsePoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;요구 배치 포인트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -587,14 +599,15 @@
     <col min="7" max="7" width="6.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -631,14 +644,17 @@
       <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
@@ -681,8 +697,11 @@
       <c r="N2" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -719,11 +738,14 @@
       <c r="L3">
         <v>7</v>
       </c>
-      <c r="N3">
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="O3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -760,11 +782,14 @@
       <c r="L4">
         <v>7</v>
       </c>
-      <c r="N4">
+      <c r="M4">
+        <v>7</v>
+      </c>
+      <c r="O4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -801,11 +826,14 @@
       <c r="L5">
         <v>7</v>
       </c>
-      <c r="N5">
+      <c r="M5">
+        <v>9</v>
+      </c>
+      <c r="O5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -825,7 +853,7 @@
         <v>30</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:H12" si="0">ROUND(G5*1.1,0)</f>
+        <f t="shared" ref="G6:G12" si="0">ROUND(G5*1.1,0)</f>
         <v>66</v>
       </c>
       <c r="H6">
@@ -843,11 +871,14 @@
       <c r="L6">
         <v>7</v>
       </c>
-      <c r="N6">
+      <c r="M6">
+        <v>11</v>
+      </c>
+      <c r="O6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -885,11 +916,14 @@
       <c r="L7">
         <v>7</v>
       </c>
-      <c r="N7">
+      <c r="M7">
+        <v>13</v>
+      </c>
+      <c r="O7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -927,11 +961,14 @@
       <c r="L8">
         <v>7</v>
       </c>
-      <c r="N8">
+      <c r="M8">
+        <v>15</v>
+      </c>
+      <c r="O8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -969,11 +1006,14 @@
       <c r="L9">
         <v>7</v>
       </c>
-      <c r="N9">
+      <c r="M9">
+        <v>17</v>
+      </c>
+      <c r="O9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1011,11 +1051,14 @@
       <c r="L10">
         <v>7</v>
       </c>
-      <c r="N10">
+      <c r="M10">
+        <v>19</v>
+      </c>
+      <c r="O10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1053,11 +1096,14 @@
       <c r="L11">
         <v>7</v>
       </c>
-      <c r="N11">
+      <c r="M11">
+        <v>21</v>
+      </c>
+      <c r="O11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1095,11 +1141,14 @@
       <c r="L12">
         <v>7</v>
       </c>
-      <c r="N12">
+      <c r="M12">
+        <v>23</v>
+      </c>
+      <c r="O12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1139,13 +1188,16 @@
         <v>5</v>
       </c>
       <c r="M13">
+        <v>25</v>
+      </c>
+      <c r="N13">
         <v>2</v>
       </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1167,7 +1219,7 @@
         <v>31</v>
       </c>
       <c r="G14">
-        <f t="shared" ref="G14:I14" si="3">ROUND(G13*1.1,0)</f>
+        <f t="shared" ref="G14" si="3">ROUND(G13*1.1,0)</f>
         <v>44</v>
       </c>
       <c r="H14">
@@ -1186,13 +1238,16 @@
         <v>5</v>
       </c>
       <c r="M14">
+        <v>27</v>
+      </c>
+      <c r="N14">
         <v>2</v>
       </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1214,7 +1269,7 @@
         <v>31</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15:I15" si="4">ROUND(G14*1.1,0)</f>
+        <f t="shared" ref="G15" si="4">ROUND(G14*1.1,0)</f>
         <v>48</v>
       </c>
       <c r="H15">
@@ -1233,13 +1288,16 @@
         <v>5</v>
       </c>
       <c r="M15">
+        <v>29</v>
+      </c>
+      <c r="N15">
         <v>2</v>
       </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1261,7 +1319,7 @@
         <v>31</v>
       </c>
       <c r="G16">
-        <f t="shared" ref="G16:H16" si="5">ROUND(G15*1.1,0)</f>
+        <f t="shared" ref="G16" si="5">ROUND(G15*1.1,0)</f>
         <v>53</v>
       </c>
       <c r="H16">
@@ -1280,13 +1338,16 @@
         <v>5</v>
       </c>
       <c r="M16">
+        <v>31</v>
+      </c>
+      <c r="N16">
         <v>2</v>
       </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1327,13 +1388,16 @@
         <v>5</v>
       </c>
       <c r="M17">
+        <v>33</v>
+      </c>
+      <c r="N17">
         <v>2</v>
       </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1355,7 +1419,7 @@
         <v>31</v>
       </c>
       <c r="G18">
-        <f t="shared" ref="G18:H18" si="6">ROUND(G17*1.1,0)</f>
+        <f t="shared" ref="G18" si="6">ROUND(G17*1.1,0)</f>
         <v>64</v>
       </c>
       <c r="H18">
@@ -1374,13 +1438,16 @@
         <v>5</v>
       </c>
       <c r="M18">
+        <v>35</v>
+      </c>
+      <c r="N18">
         <v>2</v>
       </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1402,7 +1469,7 @@
         <v>31</v>
       </c>
       <c r="G19">
-        <f t="shared" ref="G19:H19" si="7">ROUND(G18*1.1,0)</f>
+        <f t="shared" ref="G19" si="7">ROUND(G18*1.1,0)</f>
         <v>70</v>
       </c>
       <c r="H19">
@@ -1421,13 +1488,16 @@
         <v>5</v>
       </c>
       <c r="M19">
+        <v>37</v>
+      </c>
+      <c r="N19">
         <v>2</v>
       </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1449,7 +1519,7 @@
         <v>31</v>
       </c>
       <c r="G20">
-        <f t="shared" ref="G20:H20" si="8">ROUND(G19*1.1,0)</f>
+        <f t="shared" ref="G20" si="8">ROUND(G19*1.1,0)</f>
         <v>77</v>
       </c>
       <c r="H20">
@@ -1468,13 +1538,16 @@
         <v>5</v>
       </c>
       <c r="M20">
+        <v>39</v>
+      </c>
+      <c r="N20">
         <v>2</v>
       </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1496,7 +1569,7 @@
         <v>31</v>
       </c>
       <c r="G21">
-        <f t="shared" ref="G21:H21" si="9">ROUND(G20*1.1,0)</f>
+        <f t="shared" ref="G21" si="9">ROUND(G20*1.1,0)</f>
         <v>85</v>
       </c>
       <c r="H21">
@@ -1515,13 +1588,16 @@
         <v>5</v>
       </c>
       <c r="M21">
+        <v>41</v>
+      </c>
+      <c r="N21">
         <v>3</v>
       </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1543,7 +1619,7 @@
         <v>31</v>
       </c>
       <c r="G22">
-        <f t="shared" ref="G22:H22" si="10">ROUND(G21*1.1,0)</f>
+        <f t="shared" ref="G22" si="10">ROUND(G21*1.1,0)</f>
         <v>94</v>
       </c>
       <c r="H22">
@@ -1562,13 +1638,16 @@
         <v>5</v>
       </c>
       <c r="M22">
+        <v>43</v>
+      </c>
+      <c r="N22">
         <v>3</v>
       </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1608,13 +1687,16 @@
         <v>4</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="N23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1655,13 +1737,16 @@
         <v>4</v>
       </c>
       <c r="M24">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="N24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1702,13 +1787,16 @@
         <v>4</v>
       </c>
       <c r="M25">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="N25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1730,7 +1818,7 @@
         <v>32</v>
       </c>
       <c r="G26">
-        <f t="shared" ref="G26:H26" si="13">ROUND(G25*1.1,0)</f>
+        <f t="shared" ref="G26" si="13">ROUND(G25*1.1,0)</f>
         <v>40</v>
       </c>
       <c r="H26">
@@ -1749,13 +1837,16 @@
         <v>4</v>
       </c>
       <c r="M26">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="N26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1777,7 +1868,7 @@
         <v>32</v>
       </c>
       <c r="G27">
-        <f t="shared" ref="G27:H27" si="14">ROUND(G26*1.1,0)</f>
+        <f t="shared" ref="G27" si="14">ROUND(G26*1.1,0)</f>
         <v>44</v>
       </c>
       <c r="H27">
@@ -1796,13 +1887,16 @@
         <v>4</v>
       </c>
       <c r="M27">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="N27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1824,7 +1918,7 @@
         <v>32</v>
       </c>
       <c r="G28">
-        <f t="shared" ref="G28:H28" si="15">ROUND(G27*1.1,0)</f>
+        <f t="shared" ref="G28" si="15">ROUND(G27*1.1,0)</f>
         <v>48</v>
       </c>
       <c r="H28">
@@ -1843,13 +1937,16 @@
         <v>4</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="N28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1871,7 +1968,7 @@
         <v>32</v>
       </c>
       <c r="G29">
-        <f t="shared" ref="G29:H29" si="16">ROUND(G28*1.1,0)</f>
+        <f t="shared" ref="G29" si="16">ROUND(G28*1.1,0)</f>
         <v>53</v>
       </c>
       <c r="H29">
@@ -1890,13 +1987,16 @@
         <v>4</v>
       </c>
       <c r="M29">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="N29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1918,7 +2018,7 @@
         <v>32</v>
       </c>
       <c r="G30">
-        <f t="shared" ref="G30:H30" si="17">ROUND(G29*1.1,0)</f>
+        <f t="shared" ref="G30" si="17">ROUND(G29*1.1,0)</f>
         <v>58</v>
       </c>
       <c r="H30">
@@ -1937,13 +2037,16 @@
         <v>4</v>
       </c>
       <c r="M30">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="N30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1965,7 +2068,7 @@
         <v>32</v>
       </c>
       <c r="G31">
-        <f t="shared" ref="G31:H31" si="18">ROUND(G30*1.1,0)</f>
+        <f t="shared" ref="G31" si="18">ROUND(G30*1.1,0)</f>
         <v>64</v>
       </c>
       <c r="H31">
@@ -1984,13 +2087,16 @@
         <v>4</v>
       </c>
       <c r="M31">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="N31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2012,7 +2118,7 @@
         <v>32</v>
       </c>
       <c r="G32">
-        <f t="shared" ref="G32:H32" si="19">ROUND(G31*1.1,0)</f>
+        <f t="shared" ref="G32" si="19">ROUND(G31*1.1,0)</f>
         <v>70</v>
       </c>
       <c r="H32">
@@ -2031,9 +2137,12 @@
         <v>4</v>
       </c>
       <c r="M32">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="N32">
+        <v>5</v>
+      </c>
+      <c r="O32">
         <v>1</v>
       </c>
     </row>
@@ -2045,10 +2154,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F27775-B38A-425D-9D8A-9CD959A261C6}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:D25"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2145,26 +2254,34 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Design/DataTable/client_tower_status_info.xlsx
+++ b/Design/DataTable/client_tower_status_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SProjectDesign\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD872A46-B7F6-4E90-A6C4-D659CCB70BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014F796A-BD0F-4AC6-81CD-F0FFDD3D568A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="40">
   <si>
     <t>AttackSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,6 +176,14 @@
   </si>
   <si>
     <t>;요구 배치 포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원 생산 타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SupportAttack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1202,11 +1210,11 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <f t="shared" ref="B14:B32" si="1">B4+100</f>
+        <f t="shared" ref="B14:B38" si="1">B4+100</f>
         <v>201</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:C32" si="2">C4</f>
+        <f t="shared" ref="C14:C38" si="2">C4</f>
         <v>2</v>
       </c>
       <c r="D14">
@@ -2090,10 +2098,10 @@
         <v>61</v>
       </c>
       <c r="N31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -2118,7 +2126,7 @@
         <v>32</v>
       </c>
       <c r="G32">
-        <f t="shared" ref="G32" si="19">ROUND(G31*1.1,0)</f>
+        <f t="shared" ref="G32:G38" si="19">ROUND(G31*1.1,0)</f>
         <v>70</v>
       </c>
       <c r="H32">
@@ -2140,10 +2148,309 @@
         <v>63</v>
       </c>
       <c r="N32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O32">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>401</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>999999</v>
+      </c>
+      <c r="I33">
+        <v>999999</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>5</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>401</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>999999</v>
+      </c>
+      <c r="I34">
+        <v>999999</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>7</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>401</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>999999</v>
+      </c>
+      <c r="I35">
+        <v>999999</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>9</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>401</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>999999</v>
+      </c>
+      <c r="I36">
+        <v>999999</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>11</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>401</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>999999</v>
+      </c>
+      <c r="I37">
+        <v>999999</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>13</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>401</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>999999</v>
+      </c>
+      <c r="I38">
+        <v>999999</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>15</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
